--- a/data/제품 분류 기준(전송용).xlsx
+++ b/data/제품 분류 기준(전송용).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koc08\PycharmProjects\healthFriends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E8F593-7477-4931-AF17-785D00A6809F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD560D9-4616-44A8-AE14-C2AA9915CB14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="3090" windowWidth="21600" windowHeight="11385" xr2:uid="{18D28825-EF68-4740-8D61-E1228E9004E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18D28825-EF68-4740-8D61-E1228E9004E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,25 +525,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">농축유청단백
-분리유청단백
-가수분해유청단백
-가수분해농축유청단백
-가수분해분리유청단백
-유청단백
-우유단백
-농축우유단백
-분리우유단백
-카세인
-대두단백
-완두단백
-현미단백
-알팔파단백
-삼씨단백
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>프로틴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -612,6 +593,24 @@
 대두단백
 완두단백
 현미단백</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>농축유청단백
+분리유청단백
+가수분해유청단백
+가수분해농축유청단백
+가수분해분리유청단백
+유청단백
+우유단백
+농축우유단백
+분리우유단백
+카세인
+대두단백
+완두단백
+현미단백
+알팔파단백
+삼씨단백</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1263,6 +1262,117 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1275,124 +1385,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1714,8 +1713,8 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1748,16 +1747,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="70" t="s">
+      <c r="B2" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="47" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -1768,10 +1767,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="49"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="9" t="s">
         <v>98</v>
       </c>
@@ -1780,10 +1779,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="33">
-      <c r="A4" s="68"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="49"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="9" t="s">
         <v>99</v>
       </c>
@@ -1792,10 +1791,10 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="49"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="9" t="s">
         <v>100</v>
       </c>
@@ -1804,10 +1803,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A6" s="68"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="50"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="12" t="s">
         <v>101</v>
       </c>
@@ -1816,25 +1815,25 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A7" s="68"/>
-      <c r="B7" s="75"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="40" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="42"/>
       <c r="F7" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="68"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="70" t="s">
+      <c r="A8" s="70"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="66" t="s">
-        <v>126</v>
+      <c r="D8" s="47" t="s">
+        <v>125</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>2</v>
@@ -1844,10 +1843,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="82.15" customHeight="1" thickBot="1">
-      <c r="A9" s="68"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="50"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="12" t="s">
         <v>3</v>
       </c>
@@ -1856,12 +1855,12 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="68"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="70" t="s">
+      <c r="A10" s="70"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="47" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -1872,10 +1871,10 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="68"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="49"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="9" t="s">
         <v>106</v>
       </c>
@@ -1884,10 +1883,10 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="68"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="49"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="9" t="s">
         <v>30</v>
       </c>
@@ -1896,10 +1895,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A13" s="68"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="50"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="12" t="s">
         <v>49</v>
       </c>
@@ -1908,12 +1907,12 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="68"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="70" t="s">
+      <c r="A14" s="70"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="47" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -1924,10 +1923,10 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="68"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="49"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="9" t="s">
         <v>6</v>
       </c>
@@ -1936,10 +1935,10 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="68"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="49"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="9" t="s">
         <v>7</v>
       </c>
@@ -1948,10 +1947,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="68"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="49"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="35" t="s">
         <v>109</v>
       </c>
@@ -1960,10 +1959,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A18" s="68"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="50"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="12" t="s">
         <v>38</v>
       </c>
@@ -1972,8 +1971,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A19" s="68"/>
-      <c r="B19" s="75"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="14" t="s">
         <v>8</v>
       </c>
@@ -1986,8 +1985,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A20" s="69"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="14" t="s">
         <v>72</v>
       </c>
@@ -2000,16 +1999,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="63" customHeight="1">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="62" t="s">
         <v>113</v>
       </c>
       <c r="C21" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="47" t="s">
         <v>82</v>
       </c>
       <c r="E21" s="19" t="s">
@@ -2020,10 +2019,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="63" customHeight="1">
-      <c r="A22" s="77"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="80"/>
-      <c r="D22" s="49"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="21" t="s">
         <v>19</v>
       </c>
@@ -2032,10 +2031,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="63" customHeight="1">
-      <c r="A23" s="77"/>
-      <c r="B23" s="64"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="80"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="21" t="s">
         <v>20</v>
       </c>
@@ -2044,10 +2043,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="63" customHeight="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="64"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="80"/>
-      <c r="D24" s="49"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="21" t="s">
         <v>32</v>
       </c>
@@ -2056,10 +2055,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="63" customHeight="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="64"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="80"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="21" t="s">
         <v>73</v>
       </c>
@@ -2068,10 +2067,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="63" customHeight="1" thickBot="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="64"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="81"/>
-      <c r="D26" s="50"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="25" t="s">
         <v>4</v>
       </c>
@@ -2080,12 +2079,12 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="17.45" customHeight="1">
-      <c r="A27" s="77"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="85" t="s">
+      <c r="A27" s="46"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="88" t="s">
+      <c r="D27" s="59" t="s">
         <v>91</v>
       </c>
       <c r="E27" s="29" t="s">
@@ -2096,10 +2095,10 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="77"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="61"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="30" t="s">
         <v>21</v>
       </c>
@@ -2108,10 +2107,10 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="77"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="61"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="30" t="s">
         <v>22</v>
       </c>
@@ -2120,10 +2119,10 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="77"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="61"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="30" t="s">
         <v>23</v>
       </c>
@@ -2132,10 +2131,10 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="77"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="61"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="30" t="s">
         <v>24</v>
       </c>
@@ -2144,10 +2143,10 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="77"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="61"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="30" t="s">
         <v>25</v>
       </c>
@@ -2156,10 +2155,10 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="77"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="61"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="60"/>
       <c r="E33" s="30" t="s">
         <v>76</v>
       </c>
@@ -2168,10 +2167,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A34" s="77"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="62"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="61"/>
       <c r="E34" s="31" t="s">
         <v>38</v>
       </c>
@@ -2180,8 +2179,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A35" s="77"/>
-      <c r="B35" s="65"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="44" t="s">
         <v>37</v>
       </c>
@@ -2190,13 +2189,13 @@
       <c r="F35" s="34"/>
     </row>
     <row r="36" spans="1:6" ht="66">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="82" t="s">
-        <v>125</v>
+      <c r="B36" s="62"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="50" t="s">
+        <v>124</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
@@ -2206,10 +2205,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="49.15" customHeight="1">
-      <c r="A37" s="77"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="83"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="51"/>
       <c r="E37" s="6" t="s">
         <v>84</v>
       </c>
@@ -2218,10 +2217,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="49.15" customHeight="1">
-      <c r="A38" s="77"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="83"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="51"/>
       <c r="E38" s="6" t="s">
         <v>15</v>
       </c>
@@ -2230,10 +2229,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="49.15" customHeight="1">
-      <c r="A39" s="77"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="83"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="51"/>
       <c r="E39" s="6" t="s">
         <v>81</v>
       </c>
@@ -2242,10 +2241,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="49.15" customHeight="1">
-      <c r="A40" s="77"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="83"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="51"/>
       <c r="E40" s="6" t="s">
         <v>31</v>
       </c>
@@ -2254,10 +2253,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="49.15" customHeight="1">
-      <c r="A41" s="77"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="83"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="6" t="s">
         <v>28</v>
       </c>
@@ -2266,10 +2265,10 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="49.15" customHeight="1">
-      <c r="A42" s="77"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="83"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="6" t="s">
         <v>33</v>
       </c>
@@ -2278,10 +2277,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="49.15" customHeight="1">
-      <c r="A43" s="77"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="83"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="51"/>
       <c r="E43" s="33" t="s">
         <v>78</v>
       </c>
@@ -2291,9 +2290,9 @@
     </row>
     <row r="44" spans="1:6" ht="49.15" customHeight="1" thickBot="1">
       <c r="A44" s="78"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="84"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="52"/>
       <c r="E44" s="23" t="s">
         <v>38</v>
       </c>
@@ -2302,14 +2301,14 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="63"/>
-      <c r="C45" s="56" t="s">
+      <c r="B45" s="62"/>
+      <c r="C45" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="60"/>
+      <c r="D45" s="68"/>
       <c r="E45" s="29" t="s">
         <v>27</v>
       </c>
@@ -2318,10 +2317,10 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="52"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="61"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="60"/>
       <c r="E46" s="36" t="s">
         <v>53</v>
       </c>
@@ -2330,10 +2329,10 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="52"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="61"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="60"/>
       <c r="E47" s="36" t="s">
         <v>40</v>
       </c>
@@ -2342,10 +2341,10 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="52"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="61"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="60"/>
       <c r="E48" s="30" t="s">
         <v>34</v>
       </c>
@@ -2354,10 +2353,10 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="52"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="61"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="60"/>
       <c r="E49" s="30" t="s">
         <v>35</v>
       </c>
@@ -2366,10 +2365,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A50" s="53"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="62"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="61"/>
       <c r="E50" s="31" t="s">
         <v>50</v>
       </c>
@@ -2378,41 +2377,41 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="49" t="s">
+      <c r="B51" s="83"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="48" t="s">
         <v>51</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="27"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="52"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="49"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="48"/>
       <c r="E52" s="21"/>
       <c r="F52" s="27"/>
     </row>
     <row r="53" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A53" s="53"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="50"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="23"/>
       <c r="F53" s="28"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>120</v>
-      </c>
-      <c r="E55" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="F55" s="45"/>
+        <v>119</v>
+      </c>
+      <c r="E55" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="82"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
@@ -2428,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2445,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2456,13 +2455,13 @@
         <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E58">
         <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2473,7 +2472,7 @@
         <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2484,19 +2483,16 @@
         <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A21:A35"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="D36:D44"/>
-    <mergeCell ref="C36:C44"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="B21:B35"/>
-    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="C51:C53"/>
     <mergeCell ref="C45:C50"/>
     <mergeCell ref="A45:A50"/>
     <mergeCell ref="D45:D50"/>
@@ -2513,11 +2509,14 @@
     <mergeCell ref="B2:B20"/>
     <mergeCell ref="A36:A44"/>
     <mergeCell ref="C21:C26"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A21:A35"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="D36:D44"/>
+    <mergeCell ref="C36:C44"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="B21:B35"/>
+    <mergeCell ref="B36:B44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
